--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H2">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2590246666666667</v>
+        <v>0.274713</v>
       </c>
       <c r="N2">
-        <v>0.777074</v>
+        <v>0.824139</v>
       </c>
       <c r="O2">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P2">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q2">
-        <v>0.09700050693044444</v>
+        <v>0.3053902007099999</v>
       </c>
       <c r="R2">
-        <v>0.873004562374</v>
+        <v>2.74851180639</v>
       </c>
       <c r="S2">
-        <v>0.006551431873488037</v>
+        <v>0.01736228147099367</v>
       </c>
       <c r="T2">
-        <v>0.006551431873488037</v>
+        <v>0.01736228147099367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H3">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>2.666015</v>
       </c>
       <c r="O3">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P3">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q3">
-        <v>0.3327930241961111</v>
+        <v>0.9879096316833332</v>
       </c>
       <c r="R3">
-        <v>2.995137217765</v>
+        <v>8.89118668515</v>
       </c>
       <c r="S3">
-        <v>0.02247690135842559</v>
+        <v>0.05616540757795854</v>
       </c>
       <c r="T3">
-        <v>0.02247690135842559</v>
+        <v>0.05616540757795856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H4">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I4">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J4">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.265788666666667</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N4">
-        <v>3.797366</v>
+        <v>4.31443</v>
       </c>
       <c r="O4">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P4">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q4">
-        <v>0.4740171811184444</v>
+        <v>1.598740799366666</v>
       </c>
       <c r="R4">
-        <v>4.266154630066</v>
+        <v>14.3886671943</v>
       </c>
       <c r="S4">
-        <v>0.03201520659255074</v>
+        <v>0.09089285672307609</v>
       </c>
       <c r="T4">
-        <v>0.03201520659255074</v>
+        <v>0.09089285672307611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3744836666666667</v>
+        <v>5.135293</v>
       </c>
       <c r="H5">
-        <v>1.123451</v>
+        <v>15.405879</v>
       </c>
       <c r="I5">
-        <v>0.06104703021636478</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J5">
-        <v>0.06104703021636478</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.000138</v>
+        <v>0.274713</v>
       </c>
       <c r="N5">
-        <v>0.000414</v>
+        <v>0.824139</v>
       </c>
       <c r="O5">
-        <v>5.71754578076195E-05</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P5">
-        <v>5.717545780761951E-05</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q5">
-        <v>5.1678746E-05</v>
+        <v>1.410731745909</v>
       </c>
       <c r="R5">
-        <v>0.000465108714</v>
+        <v>12.696585713181</v>
       </c>
       <c r="S5">
-        <v>3.490391900416237E-06</v>
+        <v>0.08020401962994728</v>
       </c>
       <c r="T5">
-        <v>3.490391900416237E-06</v>
+        <v>0.08020401962994729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H6">
         <v>15.405879</v>
       </c>
       <c r="I6">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J6">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2590246666666667</v>
+        <v>0.8886716666666666</v>
       </c>
       <c r="N6">
-        <v>0.777074</v>
+        <v>2.666015</v>
       </c>
       <c r="O6">
-        <v>0.1073177818850196</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P6">
-        <v>0.1073177818850196</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q6">
-        <v>1.330167557560667</v>
+        <v>4.563589389131667</v>
       </c>
       <c r="R6">
-        <v>11.971508018046</v>
+        <v>41.07230450218499</v>
       </c>
       <c r="S6">
-        <v>0.08983975867189581</v>
+        <v>0.2594527372126957</v>
       </c>
       <c r="T6">
-        <v>0.08983975867189581</v>
+        <v>0.2594527372126958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H7">
         <v>15.405879</v>
       </c>
       <c r="I7">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J7">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,60 +868,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8886716666666666</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N7">
-        <v>2.666015</v>
+        <v>4.31443</v>
       </c>
       <c r="O7">
-        <v>0.3681899230603399</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P7">
-        <v>0.3681899230603399</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q7">
-        <v>4.563589389131667</v>
+        <v>7.385287392663333</v>
       </c>
       <c r="R7">
-        <v>41.07230450218501</v>
+        <v>66.46758653396999</v>
       </c>
       <c r="S7">
-        <v>0.3082256570360793</v>
+        <v>0.4198741091151291</v>
       </c>
       <c r="T7">
-        <v>0.3082256570360793</v>
+        <v>0.4198741091151292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>5.135293000000001</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H8">
-        <v>15.405879</v>
+        <v>0.260443</v>
       </c>
       <c r="I8">
-        <v>0.8371376774088587</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J8">
-        <v>0.8371376774088587</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +930,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.265788666666667</v>
+        <v>0.274713</v>
       </c>
       <c r="N8">
-        <v>3.797366</v>
+        <v>0.824139</v>
       </c>
       <c r="O8">
-        <v>0.524435119596833</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P8">
-        <v>0.524435119596833</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q8">
-        <v>6.500195679412668</v>
+        <v>0.023849025953</v>
       </c>
       <c r="R8">
-        <v>58.50176111471401</v>
+        <v>0.214641233577</v>
       </c>
       <c r="S8">
-        <v>0.4390243979709298</v>
+        <v>0.001355883392598524</v>
       </c>
       <c r="T8">
-        <v>0.4390243979709298</v>
+        <v>0.001355883392598524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>5.135293000000001</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H9">
-        <v>15.405879</v>
+        <v>0.260443</v>
       </c>
       <c r="I9">
-        <v>0.8371376774088587</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J9">
-        <v>0.8371376774088587</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.000138</v>
+        <v>0.8886716666666666</v>
       </c>
       <c r="N9">
-        <v>0.000414</v>
+        <v>2.666015</v>
       </c>
       <c r="O9">
-        <v>5.71754578076195E-05</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P9">
-        <v>5.717545780761951E-05</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q9">
-        <v>0.0007086704340000001</v>
+        <v>0.07714943829388889</v>
       </c>
       <c r="R9">
-        <v>0.006378033906000001</v>
+        <v>0.6943449446449999</v>
       </c>
       <c r="S9">
-        <v>4.786372995385878E-05</v>
+        <v>0.004386159935300421</v>
       </c>
       <c r="T9">
-        <v>4.786372995385879E-05</v>
+        <v>0.004386159935300422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H10">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I10">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J10">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,60 +1054,60 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2590246666666667</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N10">
-        <v>0.777074</v>
+        <v>4.31443</v>
       </c>
       <c r="O10">
-        <v>0.1073177818850196</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P10">
-        <v>0.1073177818850196</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q10">
-        <v>0.1449037517097778</v>
+        <v>0.1248514547211111</v>
       </c>
       <c r="R10">
-        <v>1.304133765388</v>
+        <v>1.12366309249</v>
       </c>
       <c r="S10">
-        <v>0.009786825735046547</v>
+        <v>0.007098152114544815</v>
       </c>
       <c r="T10">
-        <v>0.009786825735046549</v>
+        <v>0.007098152114544816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.5594206666666667</v>
+        <v>0.34273</v>
       </c>
       <c r="H11">
-        <v>1.678262</v>
+        <v>1.02819</v>
       </c>
       <c r="I11">
-        <v>0.09119481937794953</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J11">
-        <v>0.09119481937794954</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,60 +1116,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8886716666666666</v>
+        <v>0.274713</v>
       </c>
       <c r="N11">
-        <v>2.666015</v>
+        <v>0.824139</v>
       </c>
       <c r="O11">
-        <v>0.3681899230603399</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P11">
-        <v>0.3681899230603399</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q11">
-        <v>0.4971412962144444</v>
+        <v>0.09415238648999999</v>
       </c>
       <c r="R11">
-        <v>4.47427166593</v>
+        <v>0.8473714784099999</v>
       </c>
       <c r="S11">
-        <v>0.03357701353026883</v>
+        <v>0.005352824784831524</v>
       </c>
       <c r="T11">
-        <v>0.03357701353026883</v>
+        <v>0.005352824784831524</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5594206666666667</v>
+        <v>0.34273</v>
       </c>
       <c r="H12">
-        <v>1.678262</v>
+        <v>1.02819</v>
       </c>
       <c r="I12">
-        <v>0.09119481937794953</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J12">
-        <v>0.09119481937794954</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,122 +1178,122 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.265788666666667</v>
+        <v>0.8886716666666666</v>
       </c>
       <c r="N12">
-        <v>3.797366</v>
+        <v>2.666015</v>
       </c>
       <c r="O12">
-        <v>0.524435119596833</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P12">
-        <v>0.524435119596833</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q12">
-        <v>0.7081083397657778</v>
+        <v>0.3045744403166666</v>
       </c>
       <c r="R12">
-        <v>6.372975057892</v>
+        <v>2.741169962849999</v>
       </c>
       <c r="S12">
-        <v>0.04782576600708655</v>
+        <v>0.01731590322595171</v>
       </c>
       <c r="T12">
-        <v>0.04782576600708655</v>
+        <v>0.01731590322595171</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5594206666666667</v>
+        <v>0.34273</v>
       </c>
       <c r="H13">
-        <v>1.678262</v>
+        <v>1.02819</v>
       </c>
       <c r="I13">
-        <v>0.09119481937794953</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J13">
-        <v>0.09119481937794954</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.000138</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N13">
-        <v>0.000414</v>
+        <v>4.31443</v>
       </c>
       <c r="O13">
-        <v>5.71754578076195E-05</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P13">
-        <v>5.717545780761951E-05</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q13">
-        <v>7.7200052E-05</v>
+        <v>0.4928948646333333</v>
       </c>
       <c r="R13">
-        <v>0.0006948004680000001</v>
+        <v>4.436053781699999</v>
       </c>
       <c r="S13">
-        <v>5.214105547617434E-06</v>
+        <v>0.02802244261759323</v>
       </c>
       <c r="T13">
-        <v>5.214105547617436E-06</v>
+        <v>0.02802244261759324</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06514966666666668</v>
+        <v>0.08463066666666667</v>
       </c>
       <c r="H14">
-        <v>0.195449</v>
+        <v>0.253892</v>
       </c>
       <c r="I14">
-        <v>0.01062047299682699</v>
+        <v>0.01251722219937926</v>
       </c>
       <c r="J14">
-        <v>0.01062047299682699</v>
+        <v>0.01251722219937926</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,60 +1302,60 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2590246666666667</v>
+        <v>0.274713</v>
       </c>
       <c r="N14">
-        <v>0.777074</v>
+        <v>0.824139</v>
       </c>
       <c r="O14">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P14">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q14">
-        <v>0.01687537069177778</v>
+        <v>0.023249144332</v>
       </c>
       <c r="R14">
-        <v>0.151878336226</v>
+        <v>0.209242298988</v>
       </c>
       <c r="S14">
-        <v>0.00113976560458922</v>
+        <v>0.001321778455606887</v>
       </c>
       <c r="T14">
-        <v>0.00113976560458922</v>
+        <v>0.001321778455606887</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06514966666666668</v>
+        <v>0.08463066666666667</v>
       </c>
       <c r="H15">
-        <v>0.195449</v>
+        <v>0.253892</v>
       </c>
       <c r="I15">
-        <v>0.01062047299682699</v>
+        <v>0.01251722219937926</v>
       </c>
       <c r="J15">
-        <v>0.01062047299682699</v>
+        <v>0.01251722219937926</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,54 +1370,54 @@
         <v>2.666015</v>
       </c>
       <c r="O15">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P15">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q15">
-        <v>0.05789666285944445</v>
+        <v>0.07520887559777778</v>
       </c>
       <c r="R15">
-        <v>0.521069965735</v>
+        <v>0.67687988038</v>
       </c>
       <c r="S15">
-        <v>0.003910351135566147</v>
+        <v>0.004275833553957276</v>
       </c>
       <c r="T15">
-        <v>0.003910351135566147</v>
+        <v>0.004275833553957276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06514966666666668</v>
+        <v>0.08463066666666667</v>
       </c>
       <c r="H16">
-        <v>0.195449</v>
+        <v>0.253892</v>
       </c>
       <c r="I16">
-        <v>0.01062047299682699</v>
+        <v>0.01251722219937926</v>
       </c>
       <c r="J16">
-        <v>0.01062047299682699</v>
+        <v>0.01251722219937926</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,90 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.265788666666667</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N16">
-        <v>3.797366</v>
+        <v>4.31443</v>
       </c>
       <c r="O16">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P16">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q16">
-        <v>0.08246570970377778</v>
+        <v>0.1217110290622222</v>
       </c>
       <c r="R16">
-        <v>0.742191387334</v>
+        <v>1.09539926156</v>
       </c>
       <c r="S16">
-        <v>0.005569749026265898</v>
+        <v>0.006919610189815095</v>
       </c>
       <c r="T16">
-        <v>0.005569749026265898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06514966666666668</v>
-      </c>
-      <c r="H17">
-        <v>0.195449</v>
-      </c>
-      <c r="I17">
-        <v>0.01062047299682699</v>
-      </c>
-      <c r="J17">
-        <v>0.01062047299682699</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.000138</v>
-      </c>
-      <c r="N17">
-        <v>0.000414</v>
-      </c>
-      <c r="O17">
-        <v>5.71754578076195E-05</v>
-      </c>
-      <c r="P17">
-        <v>5.717545780761951E-05</v>
-      </c>
-      <c r="Q17">
-        <v>8.990654000000001E-06</v>
-      </c>
-      <c r="R17">
-        <v>8.0915886E-05</v>
-      </c>
-      <c r="S17">
-        <v>6.072304057270439E-07</v>
-      </c>
-      <c r="T17">
-        <v>6.072304057270439E-07</v>
+        <v>0.006919610189815096</v>
       </c>
     </row>
   </sheetData>
